--- a/biology/Médecine/SCN4A/SCN4A.xlsx
+++ b/biology/Médecine/SCN4A/SCN4A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le SCN4A (pour « Sodium channel protein type 4 subunit alpha »), appelé aussi Nav1.4, est une protéine constitutive d'un canal sodique. Il est codé par le gène SCN4A situé sur le chromosome 17 humain.
 </t>
@@ -511,10 +523,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'atteinte de sa fonction entraîne une canalopathie avec trouble de l'excitabilité musculaire[5]. Certaines mutations de son gène entraîne ainsi plusieurs syndromes comportant une myotonie néo-natale[6] avec des spasmes laryngés[7]. D'autres mutations provoquent un syndrome myasthénique[8] ou une myopathie congénitale[9].
-Une atteinte du gène pourrait être responsable de cas rares de mort subite du nourrisson[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'atteinte de sa fonction entraîne une canalopathie avec trouble de l'excitabilité musculaire. Certaines mutations de son gène entraîne ainsi plusieurs syndromes comportant une myotonie néo-natale avec des spasmes laryngés. D'autres mutations provoquent un syndrome myasthénique ou une myopathie congénitale.
+Une atteinte du gène pourrait être responsable de cas rares de mort subite du nourrisson.
 </t>
         </is>
       </c>
